--- a/CSRankings research papers.xlsx
+++ b/CSRankings research papers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Cynthia/Cynthia WorkSpace/serverless performance variability/Github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia/Desktop/Code/Serverless_Variance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D89251D-578C-7A4F-9090-30B6491825D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8157C4F7-989B-C64B-9F4C-51A19E404D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9B19F5C4-31A9-F64E-82C4-037A3A6DEED7}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9B19F5C4-31A9-F64E-82C4-037A3A6DEED7}"/>
   </bookViews>
   <sheets>
     <sheet name="used papers" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="103">
   <si>
     <t>Caerus: NIMBLE Task Scheduling for Serverless Analytics</t>
   </si>
@@ -89,19 +89,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSRankings category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Conference</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Paper title</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Web &amp; information retrieval </t>
   </si>
   <si>
     <t>Year</t>
@@ -117,9 +110,6 @@
   </si>
   <si>
     <t>CoResident Evil: Covert Communication In The Cloud With Lambdas</t>
-  </si>
-  <si>
-    <t>Computer architecture</t>
   </si>
   <si>
     <t>ASPLOS</t>
@@ -142,9 +132,6 @@
     <t>Confidential Serverless Made Efficient with Plug-In Enclaves</t>
   </si>
   <si>
-    <t>Computer networks</t>
-  </si>
-  <si>
     <t>SIGCOMM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,9 +141,6 @@
   <si>
     <t>USENIX Security</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Databases</t>
   </si>
   <si>
     <t>SIGMOD</t>
@@ -176,9 +160,6 @@
     <t>Netherite: Efficient Execution of Serverless Workflows</t>
   </si>
   <si>
-    <t>High-performance computing</t>
-  </si>
-  <si>
     <t>HPDC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,9 +168,6 @@
   </si>
   <si>
     <t>LaSS: Running Latency Sensitive Serverless Computations at the Edge</t>
-  </si>
-  <si>
-    <t>Operating systems</t>
   </si>
   <si>
     <t>Dorylus: Affordable, Scalable, and Accurate GNN Training with Distributed CPU Servers and Serverless Threads</t>
@@ -436,10 +414,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Computer security</t>
-  </si>
-  <si>
-    <t>Programming languages</t>
+    <t>Paper_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -966,13 +942,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3638C3B4-9D92-2B4D-BB6B-23602F182BA1}">
   <dimension ref="A1:XFA183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="75" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="43" style="3" customWidth="1"/>
@@ -995,25 +971,25 @@
   <sheetData>
     <row r="1" spans="1:16381" ht="117" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H1" s="17"/>
       <c r="I1" s="4"/>
@@ -1022,8 +998,8 @@
       <c r="Q1"/>
     </row>
     <row r="2" spans="1:16381" ht="38">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1032,16 +1008,16 @@
         <v>2022</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H2" s="3"/>
       <c r="L2" s="3"/>
@@ -1051,6 +1027,9 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16381" ht="38">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1058,20 +1037,23 @@
         <v>2021</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:16381" ht="38">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -1079,13 +1061,13 @@
         <v>2020</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G4" s="22">
         <v>50</v>
@@ -1093,69 +1075,74 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:16381" ht="38">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
+      <c r="A5" s="3">
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
         <v>2022</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:16381" ht="38">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3">
         <v>2022</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:16381" s="13" customFormat="1" ht="38">
-      <c r="A7" s="18"/>
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>2022</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="19"/>
@@ -9349,24 +9336,26 @@
       <c r="XFA7" s="18"/>
     </row>
     <row r="8" spans="1:16381" s="13" customFormat="1" ht="38">
-      <c r="A8" s="18"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>2022</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -17559,8 +17548,11 @@
       <c r="XFA8" s="18"/>
     </row>
     <row r="9" spans="1:16381" ht="38">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3">
         <v>2021</v>
@@ -17569,19 +17561,22 @@
         <v>2</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:16381" ht="57">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>2021</v>
@@ -17590,20 +17585,23 @@
         <v>5</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H10" s="3"/>
       <c r="K10" s="18"/>
     </row>
     <row r="11" spans="1:16381" ht="38">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3">
         <v>2021</v>
@@ -17612,10 +17610,10 @@
         <v>4</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G11" s="22">
         <v>20</v>
@@ -17623,8 +17621,11 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:16381" ht="57">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
       <c r="B12" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
         <v>2020</v>
@@ -17633,52 +17634,58 @@
         <v>3</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:16381" ht="38">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3">
         <v>2022</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:16381" ht="38">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>2022</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G14" s="22">
         <v>20</v>
@@ -25874,69 +25881,75 @@
       <c r="XEZ14" s="18"/>
     </row>
     <row r="15" spans="1:16381" ht="57">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>2021</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H15" s="3"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:16381" ht="38">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3">
         <v>2019</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:16" ht="76">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
+      <c r="A17" s="3">
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3">
         <v>2022</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H17" s="3"/>
       <c r="L17" s="18"/>
@@ -25944,6 +25957,9 @@
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:16" ht="38">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>1</v>
       </c>
@@ -25954,17 +25970,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:16" ht="38">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
@@ -25975,13 +25994,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H19" s="3"/>
       <c r="L19" s="3"/>
@@ -25989,6 +26008,9 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:16" ht="38">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
@@ -25999,13 +26021,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H20" s="3"/>
       <c r="L20" s="3"/>
@@ -26013,23 +26035,23 @@
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:16" ht="38">
-      <c r="A21" s="3" t="s">
-        <v>109</v>
+      <c r="A21" s="3">
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C21" s="3">
         <v>2022</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G21" s="22">
         <v>500</v>
@@ -26040,68 +26062,74 @@
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:16" ht="38">
-      <c r="A22" s="3" t="s">
-        <v>33</v>
+      <c r="A22" s="3">
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" s="3">
         <v>2022</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:16" ht="38">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C23" s="3">
         <v>2021</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:16" ht="57">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
       <c r="B24" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C24" s="3">
         <v>2020</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H24" s="3"/>
       <c r="L24" s="3"/>
@@ -26111,8 +26139,11 @@
       <c r="P24" s="3"/>
     </row>
     <row r="25" spans="1:16" ht="38">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
       <c r="B25" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25" s="3">
         <v>2020</v>
@@ -26121,13 +26152,13 @@
         <v>6</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H25" s="3"/>
       <c r="K25" s="18"/>
@@ -26136,20 +26167,23 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:16" ht="38">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C26" s="3">
         <v>2020</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G26" s="22">
         <v>3</v>
@@ -26160,44 +26194,50 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:16" ht="38">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
       <c r="B27" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C27" s="3">
         <v>2022</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:16" ht="38">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
       <c r="B28" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
         <v>2022</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H28" s="3"/>
       <c r="L28" s="3"/>
@@ -26205,8 +26245,11 @@
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:16" ht="19">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C29" s="3">
         <v>2020</v>
@@ -26215,10 +26258,10 @@
         <v>7</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G29" s="22">
         <v>1000</v>
@@ -26226,23 +26269,23 @@
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:16" ht="38">
-      <c r="A30" s="3" t="s">
-        <v>39</v>
+      <c r="A30" s="3">
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3">
         <v>2022</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G30" s="22">
         <v>4</v>
@@ -26250,29 +26293,35 @@
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="1:16" ht="38">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3">
         <v>2021</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:16" ht="57">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
@@ -26280,20 +26329,23 @@
         <v>2021</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:14" ht="57">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
@@ -26304,19 +26356,19 @@
         <v>10</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="57">
-      <c r="A34" s="3" t="s">
-        <v>43</v>
+      <c r="A34" s="3">
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>13</v>
@@ -26325,13 +26377,13 @@
         <v>2022</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G34" s="22">
         <v>300</v>
@@ -26340,6 +26392,9 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:14" ht="57">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
@@ -26347,20 +26402,23 @@
         <v>2021</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="38">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
@@ -26368,21 +26426,24 @@
         <v>2020</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H36" s="3"/>
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="38">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
@@ -26390,77 +26451,86 @@
         <v>2018</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:14" ht="38">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3">
         <v>2021</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H38" s="3"/>
       <c r="K38" s="18"/>
     </row>
     <row r="39" spans="1:14" ht="38">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
       <c r="B39" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C39" s="3">
         <v>2021</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="38">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C40" s="3">
         <v>2022</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G40" s="22">
         <v>5</v>
@@ -26468,63 +26538,72 @@
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="38">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
       <c r="B41" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C41" s="3">
         <v>2022</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H41" s="3"/>
       <c r="K41" s="18"/>
     </row>
     <row r="42" spans="1:14" ht="57">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C42" s="3">
         <v>2022</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="38">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
       <c r="B43" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C43" s="3">
         <v>2021</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G43" s="22">
         <v>5</v>
@@ -26532,20 +26611,23 @@
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="38">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3">
         <v>2020</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G44" s="22">
         <v>1000</v>
@@ -26553,20 +26635,23 @@
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="38">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
       <c r="B45" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C45" s="3">
         <v>2020</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G45" s="22">
         <v>475</v>
@@ -26575,20 +26660,23 @@
       <c r="K45" s="18"/>
     </row>
     <row r="46" spans="1:14" ht="57">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
       <c r="B46" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3">
         <v>2019</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G46" s="22">
         <v>10</v>
@@ -26596,45 +26684,51 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="57">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
       <c r="B47" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C47" s="3">
         <v>2020</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H47" s="3"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="57">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C48" s="3">
         <v>2022</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H48" s="3"/>
       <c r="K48" s="18"/>
@@ -26643,23 +26737,26 @@
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="38">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
       <c r="B49" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C49" s="3">
         <v>2022</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H49" s="3"/>
       <c r="L49" s="3"/>
@@ -26667,23 +26764,26 @@
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="57">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
       <c r="B50" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C50" s="3">
         <v>2021</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H50" s="3"/>
       <c r="L50" s="3"/>
@@ -26691,20 +26791,23 @@
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" ht="38">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C51" s="3">
         <v>2021</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G51" s="22">
         <v>100</v>
@@ -26715,63 +26818,72 @@
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="57">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
       <c r="B52" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C52" s="3">
         <v>2020</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:14" ht="38">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
       <c r="B53" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C53" s="3">
         <v>2020</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H53" s="3"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="1:14" ht="38">
+      <c r="A54" s="3">
+        <v>53</v>
+      </c>
       <c r="B54" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54" s="3">
         <v>2018</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G54" s="22">
         <v>50</v>
@@ -26779,20 +26891,23 @@
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:14" ht="38">
+      <c r="A55" s="3">
+        <v>54</v>
+      </c>
       <c r="B55" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C55" s="3">
         <v>2018</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G55" s="22">
         <v>10</v>
@@ -26801,90 +26916,99 @@
       <c r="K55" s="18"/>
     </row>
     <row r="56" spans="1:14" ht="19">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
       <c r="B56" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3">
         <v>2018</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H56" s="3"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="1:14" ht="38">
+      <c r="A57" s="3">
+        <v>56</v>
+      </c>
       <c r="B57" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C57" s="3">
         <v>2018</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:14" ht="38">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
       <c r="B58" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C58" s="3">
         <v>2018</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G58" s="29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" spans="1:14" ht="38">
-      <c r="A59" s="3" t="s">
-        <v>110</v>
+    <row r="59" spans="1:14" ht="19">
+      <c r="A59" s="3">
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C59" s="3">
         <v>2019</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G59" s="22">
         <v>5</v>
@@ -26892,20 +27016,23 @@
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:14" ht="38">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C60" s="3">
         <v>2018</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G60" s="22">
         <v>10</v>
